--- a/biology/Médecine/1572_en_santé_et_médecine/1572_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1572_en_santé_et_médecine/1572_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1572_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1572_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1572 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1572_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1572_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ambroise Paré (1509/1510-1590) fait paraître ses Cinq livres de chirurgie, chez André Wechel, à Paris[1],[2].
-Antoine Mizauld (1510-1578) fait imprimer à Paris, par Frédéric Morel l'Ancien, son « Traité sur le séné » (Opusculum de sena[3]).
-Volcher Coiter (1534-1576), Externarum et internarum principalium humani corporis partium tabulae, chez Théodore Gerlatzen, à Nuremberg[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ambroise Paré (1509/1510-1590) fait paraître ses Cinq livres de chirurgie, chez André Wechel, à Paris,.
+Antoine Mizauld (1510-1578) fait imprimer à Paris, par Frédéric Morel l'Ancien, son « Traité sur le séné » (Opusculum de sena).
+Volcher Coiter (1534-1576), Externarum et internarum principalium humani corporis partium tabulae, chez Théodore Gerlatzen, à Nuremberg.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1572_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1572_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>25 novembre : Daniel Sennert (mort en 1637), médecin allemand, professeur à l'université de Wittemberg[5].
-22 décembre : Abel Brunier (mort en 1665), médecin et botaniste français, auteur du Hortus regius blesensis en 1653[6].
-Charles Bouvard (mort en 1658), médecin et chimiste français[7].
-Loys du Gardin (mort en 1633), médecin, humaniste et poète douaisien[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>25 novembre : Daniel Sennert (mort en 1637), médecin allemand, professeur à l'université de Wittemberg.
+22 décembre : Abel Brunier (mort en 1665), médecin et botaniste français, auteur du Hortus regius blesensis en 1653.
+Charles Bouvard (mort en 1658), médecin et chimiste français.
+Loys du Gardin (mort en 1633), médecin, humaniste et poète douaisien.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1572_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1572_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adolphe Occon (né en 1494 à Brixen au Tyrol), reçu docteur en médecine à Bologne, médecin de la ville et de l'hôpital d'Augsbourg en Souabe ; adopté par son cousin,le médecin Adolphe Occon (1447-1503), et père d'un troisième Adolphe Occon (1524-1605), médecin lui aussi[9].
-Jacques Curio (né en 1497), médecin allemand, professeur à Ingolstadt et Heidelberg[10].
-Vers 1572 : Hippolyte Salviani (né en 1514), médecin, zoologiste et botaniste italien[11],[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Adolphe Occon (né en 1494 à Brixen au Tyrol), reçu docteur en médecine à Bologne, médecin de la ville et de l'hôpital d'Augsbourg en Souabe ; adopté par son cousin,le médecin Adolphe Occon (1447-1503), et père d'un troisième Adolphe Occon (1524-1605), médecin lui aussi.
+Jacques Curio (né en 1497), médecin allemand, professeur à Ingolstadt et Heidelberg.
+Vers 1572 : Hippolyte Salviani (né en 1514), médecin, zoologiste et botaniste italien,.</t>
         </is>
       </c>
     </row>
